--- a/bb.xlsx
+++ b/bb.xlsx
@@ -459,12 +459,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000001D5C0EE6850&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001ACF0E38650&gt;</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>{'front': 10.52, 'drill': 20, 'robot': 0, 'camera': 4.608214024136408, 'back': 10.57, 'press': 4.70720152832842, 'manual': 12.728104691935327}</t>
+          <t>{'front': 10.52, 'drill': 50, 'robot': 0, 'camera': 9.567577650251922, 'back': 10.57, 'press': 10.763551641514258, 'manual': 12.728104691935327}</t>
         </is>
       </c>
     </row>
@@ -477,12 +477,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000001D5B2907ED0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001AC89CA4610&gt;</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>{'front': 10.52, 'drill': 40, 'robot': 0, 'camera': 5.579358695533427, 'back': 10.57, 'press': 16.627636203257865, 'manual': 12.728104691935327}</t>
+          <t>{'front': 10.52, 'drill': 40, 'robot': 0, 'camera': 21.746285716552148, 'back': 10.57, 'press': 63.42603934580699, 'manual': 12.728104691935327}</t>
         </is>
       </c>
     </row>
@@ -495,12 +495,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000001D5B2906BD0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001ACE23F0490&gt;</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>{'front': 10.52, 'drill': 40, 'robot': 0, 'camera': 40.631335214346315, 'back': 10.57, 'press': 4.754860543060837, 'manual': 12.728104691935327}</t>
+          <t>{'front': 10.52, 'drill': 40, 'robot': 0, 'camera': 13.061548530047839, 'back': 10.57, 'press': 6.456683704820997, 'manual': 12.728104691935327}</t>
         </is>
       </c>
     </row>
@@ -513,12 +513,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000001D5B2904650&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001ACE23F0550&gt;</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>{'front': 10.52, 'drill': 40, 'robot': 120, 'camera': 4.027220545445494, 'back': 10.57, 'press': 7.585443113074296, 'manual': 12.728104691935327}</t>
+          <t>{'front': 10.52, 'drill': 40, 'robot': 0, 'camera': 6.180207684089524, 'back': 10.57, 'press': 8.131038132346024, 'manual': 12.728104691935327}</t>
         </is>
       </c>
     </row>
@@ -531,12 +531,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000001D5D836DA90&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001AC8954CDD0&gt;</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>{'front': 10.52, 'drill': 20, 'robot': 0, 'camera': 14.04668812262235, 'back': 10.57, 'press': 14.355819975524133, 'manual': 12.728104691935327}</t>
+          <t>{'front': 10.52, 'drill': 20, 'robot': 0, 'camera': 7.949915010405056, 'back': 10.57, 'press': 7.902042125549933, 'manual': 12.728104691935327}</t>
         </is>
       </c>
     </row>
@@ -549,12 +549,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000001D5B28E6D10&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001ACE23F0850&gt;</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>{'front': 10.52, 'drill': 40, 'robot': 0, 'camera': 3.5738387476925997, 'back': 10.57, 'press': 3.9740551398159796, 'manual': 12.728104691935327}</t>
+          <t>{'front': 10.52, 'drill': 20, 'robot': 0, 'camera': 10.327201595583702, 'back': 10.57, 'press': 7.104666134102715, 'manual': 12.728104691935327}</t>
         </is>
       </c>
     </row>
@@ -567,12 +567,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000001D5B28E57D0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001ACE23F0210&gt;</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>{'front': 10.52, 'drill': 40, 'robot': 0, 'camera': 10.587879066269277, 'back': 10.57, 'press': 8.56103493798689, 'manual': 12.728104691935327}</t>
+          <t>{'front': 10.52, 'drill': 30, 'robot': 0, 'camera': 27.703835243945903, 'back': 10.57, 'press': 9.996359531109476, 'manual': 12.728104691935327}</t>
         </is>
       </c>
     </row>
@@ -585,12 +585,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000001D5B28E54D0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001ACE23F0250&gt;</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>{'front': 10.52, 'drill': 50, 'robot': 0, 'camera': 8.841824280987646, 'back': 10.57, 'press': 5.482229481218934, 'manual': 12.728104691935327}</t>
+          <t>{'front': 10.52, 'drill': 20, 'robot': 0, 'camera': 7.587502698366989, 'back': 10.57, 'press': 12.359295496413589, 'manual': 12.728104691935327}</t>
         </is>
       </c>
     </row>
@@ -603,12 +603,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000001D5B1B978D0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001ACE23F2F50&gt;</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>{'front': 10.52, 'drill': 20, 'robot': 0, 'camera': 6.0179621427975665, 'back': 10.57, 'press': 4.588603925729911, 'manual': 12.728104691935327}</t>
+          <t>{'front': 10.52, 'drill': 20, 'robot': 0, 'camera': 5.935792042889746, 'back': 10.57, 'press': 14.435141719256736, 'manual': 12.728104691935327}</t>
         </is>
       </c>
     </row>
@@ -621,12 +621,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000001D5D9C736D0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001ACE23F0890&gt;</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>{'front': 10.52, 'drill': 40, 'robot': 0, 'camera': 15.9517410301713, 'back': 10.57, 'press': 4.73688743675143, 'manual': 12.728104691935327}</t>
+          <t>{'front': 10.52, 'drill': 40, 'robot': 0, 'camera': 6.598996464202271, 'back': 10.57, 'press': 17.76306871376358, 'manual': 12.728104691935327}</t>
         </is>
       </c>
     </row>
@@ -639,12 +639,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000001D5B28E7890&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001ACE23F3510&gt;</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>{'front': 10.52, 'drill': 20, 'robot': 0, 'camera': 5.623890895045973, 'back': 10.57, 'press': 9.853438073376795, 'manual': 12.728104691935327}</t>
+          <t>{'front': 10.52, 'drill': 40, 'robot': 0, 'camera': 3.9522545692880318, 'back': 10.57, 'press': 6.273909109673019, 'manual': 12.728104691935327}</t>
         </is>
       </c>
     </row>
@@ -657,12 +657,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000001D5B28E69D0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001ACE23F2FD0&gt;</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>{'front': 10.52, 'drill': 40, 'robot': 108, 'camera': 13.183689141815664, 'back': 3.5, 'press': 7.254462710300978, 'manual': 12.728104691935327}</t>
+          <t>{'front': 10.52, 'drill': 20, 'robot': 0, 'camera': 5.840619087392036, 'back': 3.5, 'press': 14.907464916284821, 'manual': 12.728104691935327}</t>
         </is>
       </c>
     </row>
@@ -675,12 +675,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000001D5D98C4DD0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001ACE23F2DD0&gt;</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>{'front': 10.52, 'drill': 40, 'robot': 0, 'camera': 7.1902852274670845, 'back': 10.57, 'press': 4.3704555362350685, 'manual': 12.728104691935327}</t>
+          <t>{'front': 10.52, 'drill': 20, 'robot': 0, 'camera': 10.999574726493211, 'back': 10.57, 'press': 3.602802184812644, 'manual': 12.728104691935327}</t>
         </is>
       </c>
     </row>
@@ -693,12 +693,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000001D5B28E7DD0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001ACE23F39D0&gt;</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>{'front': 10.52, 'drill': 20, 'robot': 0, 'camera': 9.053249700271094, 'back': 10.57, 'press': 5.121998983528494, 'manual': 12.728104691935327}</t>
+          <t>{'front': 10.52, 'drill': 20, 'robot': 0, 'camera': 4.227452232064643, 'back': 3.5, 'press': 11.817843681282252, 'manual': 12.728104691935327}</t>
         </is>
       </c>
     </row>
@@ -711,12 +711,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000001D5B28E6490&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001AC89C62ED0&gt;</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>{'front': 10.52, 'drill': 40, 'robot': 0, 'camera': 8.590688827448366, 'back': 10.57, 'press': 5.147828581440767, 'manual': 12.728104691935327}</t>
+          <t>{'front': 10.52, 'drill': 20, 'robot': 0, 'camera': 19.376956214679357, 'back': 10.57, 'press': 4.180959101332684, 'manual': 12.728104691935327}</t>
         </is>
       </c>
     </row>
@@ -729,12 +729,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000001D5B28E7A10&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001ACE23C8090&gt;</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>{'front': 10.52, 'drill': 20, 'robot': 0, 'camera': 3.855931844184644, 'back': 10.57, 'press': 4.2998387192974326, 'manual': 12.728104691935327}</t>
+          <t>{'front': 10.52, 'drill': 50, 'robot': 0, 'camera': 6.144920077987273, 'back': 10.57, 'press': 6.958187679261728, 'manual': 12.728104691935327}</t>
         </is>
       </c>
     </row>
@@ -747,12 +747,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000001D5B28E7010&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001ACE23C8110&gt;</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>{'front': 10.52, 'drill': 40, 'robot': 108, 'camera': 16.871855505486806, 'back': 10.57, 'press': 15.685291835326117, 'manual': 12.728104691935327}</t>
+          <t>{'front': 10.52, 'drill': 50, 'robot': 0, 'camera': 10.629598347198353, 'back': 10.57, 'press': 6.542776194970626, 'manual': 12.728104691935327}</t>
         </is>
       </c>
     </row>
@@ -765,12 +765,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000001D5B28E6890&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001ACE23C8190&gt;</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>{'front': 10.52, 'drill': 20, 'robot': 0, 'camera': 6.489574928392765, 'back': 10.57, 'press': 11.449654427464534, 'manual': 12.728104691935327}</t>
+          <t>{'front': 10.52, 'drill': 40, 'robot': 0, 'camera': 3.8607661340599866, 'back': 10.57, 'press': 9.5763071077549, 'manual': 12.728104691935327}</t>
         </is>
       </c>
     </row>
@@ -783,12 +783,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000001D5B28E5D10&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001ACE23CA710&gt;</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>{'front': 10.52, 'drill': 20, 'robot': 0, 'camera': 3.5417441515151795, 'back': 10.57, 'press': 5.088468837463197, 'manual': 12.728104691935327}</t>
+          <t>{'front': 10.52, 'drill': 40, 'robot': 0, 'camera': 4.720527116199082, 'back': 10.57, 'press': 6.143485232536423, 'manual': 12.728104691935327}</t>
         </is>
       </c>
     </row>
@@ -801,12 +801,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000001D5B28E46D0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001ACE23C82D0&gt;</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>{'front': 10.52, 'drill': 20, 'robot': 0, 'camera': 4.226497274696391, 'back': 10.57, 'press': 15.890480722792503, 'manual': 12.728104691935327}</t>
+          <t>{'front': 10.52, 'drill': 40, 'robot': 0, 'camera': 13.14449627092915, 'back': 10.57, 'press': 5.37164174027899, 'manual': 12.728104691935327}</t>
         </is>
       </c>
     </row>
